--- a/ONCHO/Impact Assessments/Nigeria/2024/cross river/ng_oncho_stop_2411_1_site_cs.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2024/cross river/ng_oncho_stop_2411_1_site_cs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\adamawa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\cross river\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386DF2F9-4244-4126-98C8-E736FFEAF0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A450EA-830B-4059-9380-89D422E2E9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="162">
   <si>
     <t>type</t>
   </si>
@@ -380,133 +380,145 @@
     <t>English</t>
   </si>
   <si>
-    <t>ADAMAWA</t>
-  </si>
-  <si>
-    <t>DEMSA</t>
-  </si>
-  <si>
-    <t>FUFORE</t>
-  </si>
-  <si>
-    <t>GOMBI</t>
-  </si>
-  <si>
-    <t>HONG</t>
-  </si>
-  <si>
-    <t>JADA</t>
-  </si>
-  <si>
-    <t>LAMURDE</t>
-  </si>
-  <si>
-    <t>MADAGALI</t>
-  </si>
-  <si>
-    <t>MICHIKA</t>
-  </si>
-  <si>
-    <t>MUBI NORTH</t>
-  </si>
-  <si>
-    <t>MUBI SOUTH</t>
-  </si>
-  <si>
-    <t>SONG</t>
-  </si>
-  <si>
-    <t>YOLA NORTH</t>
-  </si>
-  <si>
-    <t>BOLLERE</t>
-  </si>
-  <si>
-    <t>DAMAI</t>
-  </si>
-  <si>
-    <t>GUYAKU</t>
-  </si>
-  <si>
-    <t>JAMTARI</t>
-  </si>
-  <si>
-    <t>KWATAMA DAFFA</t>
-  </si>
-  <si>
-    <t>MUCHALLA</t>
-  </si>
-  <si>
-    <t>PUBA</t>
-  </si>
-  <si>
-    <t>SINA MALA</t>
-  </si>
-  <si>
-    <t>WURO HAMMAGU</t>
-  </si>
-  <si>
-    <t>WURO JATAU</t>
-  </si>
-  <si>
     <t>. &gt; 1970 and . &lt;= 2024</t>
   </si>
   <si>
-    <t>(Adamawa State 2024 Apr) - 1. Site Form V2</t>
-  </si>
-  <si>
-    <t>ng_oncho_stop_202403_1_site_adam_v2</t>
-  </si>
-  <si>
-    <t>MAIHA</t>
-  </si>
-  <si>
-    <t>SHELLENG</t>
-  </si>
-  <si>
-    <t>TOUNGO</t>
-  </si>
-  <si>
-    <t>DILLI</t>
-  </si>
-  <si>
-    <t>KARLAHI</t>
-  </si>
-  <si>
-    <t>KOCHEL</t>
-  </si>
-  <si>
-    <t>ZHEDINYI</t>
-  </si>
-  <si>
-    <t>TISEL</t>
-  </si>
-  <si>
-    <t>DABEWO</t>
-  </si>
-  <si>
-    <t>BAAWO</t>
-  </si>
-  <si>
-    <t>BARANGA</t>
-  </si>
-  <si>
-    <t>GUMTI</t>
-  </si>
-  <si>
-    <t>KOGIN BABA1</t>
-  </si>
-  <si>
-    <t>KOGIN BABA2</t>
-  </si>
-  <si>
-    <t>MAYOBIRIJI</t>
-  </si>
-  <si>
-    <t>TIMBO</t>
-  </si>
-  <si>
-    <t>YOLA (DOUBELI)</t>
+    <t>ng_oncho_stop_2411_1_site_cs</t>
+  </si>
+  <si>
+    <t>(Cross River 2024 Nov) - 1. Site Form V2</t>
+  </si>
+  <si>
+    <t>CROSS RIVER</t>
+  </si>
+  <si>
+    <t>ABI</t>
+  </si>
+  <si>
+    <t>AKAMKPA</t>
+  </si>
+  <si>
+    <t>BOKI</t>
+  </si>
+  <si>
+    <t>OGOJA</t>
+  </si>
+  <si>
+    <t>YAKURR</t>
+  </si>
+  <si>
+    <t>AFAFANYI</t>
+  </si>
+  <si>
+    <t>AKPOHA-IGBO</t>
+  </si>
+  <si>
+    <t>BAZOHURE</t>
+  </si>
+  <si>
+    <t>IGBO EMABAN</t>
+  </si>
+  <si>
+    <t>IJOM</t>
+  </si>
+  <si>
+    <t>IMINA</t>
+  </si>
+  <si>
+    <t>ITIGIDI</t>
+  </si>
+  <si>
+    <t>IYOGUE</t>
+  </si>
+  <si>
+    <t>AKING</t>
+  </si>
+  <si>
+    <t>AKWA IBAMI</t>
+  </si>
+  <si>
+    <t>EKANG</t>
+  </si>
+  <si>
+    <t>EKONG</t>
+  </si>
+  <si>
+    <t>MFAMOSING</t>
+  </si>
+  <si>
+    <t>OKWA 11</t>
+  </si>
+  <si>
+    <t>OKENDE IDP CAMP</t>
+  </si>
+  <si>
+    <t>AGOI IBAMI</t>
+  </si>
+  <si>
+    <t>CRS_AKA_M_001</t>
+  </si>
+  <si>
+    <t>CRS_AKA_M_002</t>
+  </si>
+  <si>
+    <t>CRS_AKA_M_003</t>
+  </si>
+  <si>
+    <t>CRS_AKA_M_004</t>
+  </si>
+  <si>
+    <t>CRS_AKA_M_005</t>
+  </si>
+  <si>
+    <t>CRS_BOK_M_006</t>
+  </si>
+  <si>
+    <t>CRS_OGO_M_007</t>
+  </si>
+  <si>
+    <t>CRS_YAK_M_008</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_009</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_010</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_011</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_012</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_013</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_014</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_015</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_016</t>
+  </si>
+  <si>
+    <t>bind::db_add_col_1</t>
+  </si>
+  <si>
+    <t>bind::db_add_col_2</t>
+  </si>
+  <si>
+    <t>bind::db_add_col_3</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>${c_district}</t>
+  </si>
+  <si>
+    <t>${c_cluster_name}</t>
   </si>
 </sst>
 </file>
@@ -638,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -679,6 +691,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,13 +967,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -978,10 +991,11 @@
     <col min="11" max="11" width="35.375" style="12" customWidth="1"/>
     <col min="12" max="12" width="13.875" style="12" customWidth="1"/>
     <col min="13" max="13" width="36.625" style="12" customWidth="1"/>
-    <col min="14" max="16384" width="11" style="12"/>
+    <col min="14" max="16" width="20.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="13" customFormat="1" ht="37.5">
+    <row r="1" spans="1:16" s="13" customFormat="1" ht="37.5">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1021,8 +1035,17 @@
       <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="31.5">
+      <c r="N1" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="13" customFormat="1" ht="31.5">
       <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
@@ -1051,7 +1074,7 @@
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
     </row>
-    <row r="3" spans="1:13" s="13" customFormat="1">
+    <row r="3" spans="1:16" s="13" customFormat="1">
       <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
@@ -1072,7 +1095,7 @@
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
     </row>
-    <row r="4" spans="1:13" s="13" customFormat="1">
+    <row r="4" spans="1:16" s="13" customFormat="1">
       <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
@@ -1093,8 +1116,11 @@
       <c r="M4" s="17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" s="13" customFormat="1">
+      <c r="N4" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="13" customFormat="1">
       <c r="A5" s="14" t="s">
         <v>27</v>
       </c>
@@ -1116,8 +1142,14 @@
       <c r="M5" s="17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" s="13" customFormat="1" ht="31.5">
+      <c r="N5" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="13" customFormat="1" ht="31.5">
       <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
@@ -1145,8 +1177,14 @@
       <c r="M6" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" s="13" customFormat="1" ht="15.75" customHeight="1">
+      <c r="O6" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
@@ -1169,7 +1207,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" s="13" customFormat="1">
+    <row r="8" spans="1:16" s="13" customFormat="1">
       <c r="A8" s="13" t="s">
         <v>40</v>
       </c>
@@ -1184,7 +1222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="13" customFormat="1">
+    <row r="9" spans="1:16" s="13" customFormat="1">
       <c r="A9" s="13" t="s">
         <v>37</v>
       </c>
@@ -1199,7 +1237,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="13" customFormat="1">
+    <row r="10" spans="1:16" s="13" customFormat="1">
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
@@ -1214,7 +1252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:16">
       <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
@@ -1231,7 +1269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:16">
       <c r="A12" s="12" t="s">
         <v>51</v>
       </c>
@@ -1245,7 +1283,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:16">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -1259,7 +1297,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:16">
       <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
@@ -1273,7 +1311,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:16">
       <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
@@ -1287,7 +1325,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:16">
       <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
@@ -1360,7 +1398,7 @@
         <v>72</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>73</v>
@@ -1424,11 +1462,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97:XFD97"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1722,10 +1760,10 @@
         <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1733,13 +1771,13 @@
         <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1747,13 +1785,13 @@
         <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1761,13 +1799,13 @@
         <v>87</v>
       </c>
       <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="C27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1775,13 +1813,13 @@
         <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1789,943 +1827,506 @@
         <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>115</v>
-      </c>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>115</v>
+        <v>124</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>125</v>
+      </c>
+      <c r="E32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>126</v>
+      </c>
+      <c r="E33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>127</v>
+      </c>
+      <c r="E34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>128</v>
+      </c>
+      <c r="E35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>129</v>
+      </c>
+      <c r="E36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>130</v>
+      </c>
+      <c r="E37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
-      </c>
-      <c r="D38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>131</v>
+      </c>
+      <c r="E38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>132</v>
+      </c>
+      <c r="E39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>88</v>
       </c>
       <c r="B46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" t="s">
+        <v>142</v>
+      </c>
+      <c r="F50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" t="s">
+        <v>144</v>
+      </c>
+      <c r="F52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" t="s">
+        <v>145</v>
+      </c>
+      <c r="F53" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" t="s">
+        <v>147</v>
+      </c>
+      <c r="F55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" t="s">
+        <v>150</v>
+      </c>
+      <c r="F58" t="s">
         <v>134</v>
       </c>
-      <c r="C46" t="s">
-        <v>134</v>
-      </c>
-      <c r="E46" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" t="s">
-        <v>147</v>
-      </c>
-      <c r="E47" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" t="s">
-        <v>120</v>
-      </c>
-      <c r="E48" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" t="s">
-        <v>148</v>
-      </c>
-      <c r="E49" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" t="s">
-        <v>128</v>
-      </c>
-      <c r="E50" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" t="s">
-        <v>129</v>
-      </c>
-      <c r="E51" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" t="s">
-        <v>132</v>
-      </c>
-      <c r="E52" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53" t="s">
-        <v>122</v>
-      </c>
-      <c r="C53" t="s">
-        <v>122</v>
-      </c>
-      <c r="E53" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54" t="s">
-        <v>131</v>
-      </c>
-      <c r="E54" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" t="s">
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" t="s">
+        <v>151</v>
+      </c>
+      <c r="F59" t="s">
         <v>135</v>
       </c>
-      <c r="C55" t="s">
-        <v>135</v>
-      </c>
-      <c r="E55" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" t="s">
-        <v>133</v>
-      </c>
-      <c r="E56" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" t="s">
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" t="s">
+        <v>152</v>
+      </c>
+      <c r="F60" t="s">
         <v>136</v>
       </c>
-      <c r="C57" t="s">
-        <v>136</v>
-      </c>
-      <c r="E57" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" t="s">
-        <v>149</v>
-      </c>
-      <c r="C58" t="s">
-        <v>149</v>
-      </c>
-      <c r="E58" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>88</v>
-      </c>
-      <c r="B59" t="s">
-        <v>150</v>
-      </c>
-      <c r="C59" t="s">
-        <v>150</v>
-      </c>
-      <c r="E59" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>88</v>
-      </c>
-      <c r="B60" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" t="s">
-        <v>151</v>
-      </c>
-      <c r="E60" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>88</v>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="B61" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
-      </c>
-      <c r="E61" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>88</v>
+        <v>153</v>
+      </c>
+      <c r="F61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
-      </c>
-      <c r="E62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>88</v>
+        <v>154</v>
+      </c>
+      <c r="F62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="B63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
-      </c>
-      <c r="E63" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>88</v>
-      </c>
-      <c r="B64" t="s">
         <v>155</v>
       </c>
-      <c r="C64" t="s">
-        <v>155</v>
-      </c>
-      <c r="E64" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>88</v>
-      </c>
-      <c r="B65" t="s">
-        <v>156</v>
-      </c>
-      <c r="C65" t="s">
-        <v>156</v>
-      </c>
-      <c r="E65" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>88</v>
-      </c>
-      <c r="B66" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" t="s">
-        <v>143</v>
-      </c>
-      <c r="E66" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>88</v>
-      </c>
-      <c r="B67" t="s">
-        <v>137</v>
-      </c>
-      <c r="C67" t="s">
-        <v>137</v>
-      </c>
-      <c r="E67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>88</v>
-      </c>
-      <c r="B68" t="s">
-        <v>157</v>
-      </c>
-      <c r="C68" t="s">
-        <v>157</v>
-      </c>
-      <c r="E68" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B70">
-        <v>401</v>
-      </c>
-      <c r="C70">
-        <v>401</v>
-      </c>
-      <c r="F70" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B71">
-        <v>402</v>
-      </c>
-      <c r="C71">
-        <v>402</v>
-      </c>
-      <c r="F71" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B72">
-        <v>403</v>
-      </c>
-      <c r="C72">
-        <v>403</v>
-      </c>
-      <c r="F72" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B73">
-        <v>404</v>
-      </c>
-      <c r="C73">
-        <v>404</v>
-      </c>
-      <c r="F73" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B74">
-        <v>405</v>
-      </c>
-      <c r="C74">
-        <v>405</v>
-      </c>
-      <c r="F74" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B75">
-        <v>406</v>
-      </c>
-      <c r="C75">
-        <v>406</v>
-      </c>
-      <c r="F75" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B76">
-        <v>407</v>
-      </c>
-      <c r="C76">
-        <v>407</v>
-      </c>
-      <c r="F76" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B77">
-        <v>408</v>
-      </c>
-      <c r="C77">
-        <v>408</v>
-      </c>
-      <c r="F77" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B78">
-        <v>409</v>
-      </c>
-      <c r="C78">
-        <v>409</v>
-      </c>
-      <c r="F78" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B79">
-        <v>410</v>
-      </c>
-      <c r="C79">
-        <v>410</v>
-      </c>
-      <c r="F79" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B80">
-        <v>411</v>
-      </c>
-      <c r="C80">
-        <v>411</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B81">
-        <v>412</v>
-      </c>
-      <c r="C81">
-        <v>412</v>
-      </c>
-      <c r="F81" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B82">
-        <v>413</v>
-      </c>
-      <c r="C82">
-        <v>413</v>
-      </c>
-      <c r="F82" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B83">
-        <v>414</v>
-      </c>
-      <c r="C83">
-        <v>414</v>
-      </c>
-      <c r="F83" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B84">
-        <v>415</v>
-      </c>
-      <c r="C84">
-        <v>415</v>
-      </c>
-      <c r="F84" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B85">
-        <v>416</v>
-      </c>
-      <c r="C85">
-        <v>416</v>
-      </c>
-      <c r="F85" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B86">
-        <v>417</v>
-      </c>
-      <c r="C86">
-        <v>417</v>
-      </c>
-      <c r="F86" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B87">
-        <v>418</v>
-      </c>
-      <c r="C87">
-        <v>418</v>
-      </c>
-      <c r="F87" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B88">
-        <v>419</v>
-      </c>
-      <c r="C88">
-        <v>419</v>
-      </c>
-      <c r="F88" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B89">
-        <v>420</v>
-      </c>
-      <c r="C89">
-        <v>420</v>
-      </c>
-      <c r="F89" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B90">
-        <v>421</v>
-      </c>
-      <c r="C90">
-        <v>421</v>
-      </c>
-      <c r="F90" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B91">
-        <v>422</v>
-      </c>
-      <c r="C91">
-        <v>422</v>
-      </c>
-      <c r="F91" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B92">
-        <v>423</v>
-      </c>
-      <c r="C92">
-        <v>423</v>
-      </c>
-      <c r="F92" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B93">
-        <v>424</v>
-      </c>
-      <c r="C93">
-        <v>424</v>
-      </c>
-      <c r="F93" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B94">
-        <v>425</v>
-      </c>
-      <c r="C94">
-        <v>425</v>
-      </c>
-      <c r="F94" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B95">
-        <v>426</v>
-      </c>
-      <c r="C95">
-        <v>426</v>
-      </c>
-      <c r="F95" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B96">
-        <v>427</v>
-      </c>
-      <c r="C96">
-        <v>427</v>
-      </c>
-      <c r="F96" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B97">
-        <v>428</v>
-      </c>
-      <c r="C97">
-        <v>428</v>
-      </c>
-      <c r="F97" t="s">
-        <v>137</v>
-      </c>
+      <c r="F63" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="12"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="12"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="12"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="12"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="12"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="12"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="12"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="12"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="12"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="12"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="12"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A45:E52">
-    <sortCondition ref="A45:A52"/>
-    <sortCondition ref="E45:E52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:E42">
+    <sortCondition ref="A35:A42"/>
+    <sortCondition ref="E35:E42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2736,7 +2337,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2759,10 +2360,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>114</v>

--- a/ONCHO/Impact Assessments/Nigeria/2024/cross river/ng_oncho_stop_2411_1_site_cs.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2024/cross river/ng_oncho_stop_2411_1_site_cs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\cross river\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A450EA-830B-4059-9380-89D422E2E9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CCA757-0797-4111-8870-683E8E1CE0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="160">
   <si>
     <t>type</t>
   </si>
@@ -137,12 +137,6 @@
     <t>Community Code</t>
   </si>
   <si>
-    <t>. &gt; 99 and . &lt; 1000</t>
-  </si>
-  <si>
-    <t>Must be between 100 and 999 included</t>
-  </si>
-  <si>
     <t>community = ${c_cluster_name}</t>
   </si>
   <si>
@@ -386,9 +380,6 @@
     <t>ng_oncho_stop_2411_1_site_cs</t>
   </si>
   <si>
-    <t>(Cross River 2024 Nov) - 1. Site Form V2</t>
-  </si>
-  <si>
     <t>CROSS RIVER</t>
   </si>
   <si>
@@ -519,6 +510,9 @@
   </si>
   <si>
     <t>${c_cluster_name}</t>
+  </si>
+  <si>
+    <t>(Cross River 2024 Nov) - 1. Site Form</t>
   </si>
 </sst>
 </file>
@@ -969,11 +963,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:S1048576"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1036,13 +1030,13 @@
         <v>12</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="13" customFormat="1" ht="31.5">
@@ -1117,7 +1111,7 @@
         <v>26</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="13" customFormat="1">
@@ -1143,13 +1137,13 @@
         <v>30</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="13" customFormat="1" ht="31.5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="13" customFormat="1">
       <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
@@ -1161,12 +1155,7 @@
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
-      <c r="F6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>35</v>
-      </c>
+      <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17" t="s">
@@ -1175,24 +1164,24 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
       <c r="M6" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>39</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -1209,13 +1198,13 @@
     </row>
     <row r="8" spans="1:16" s="13" customFormat="1">
       <c r="A8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>40</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>42</v>
       </c>
       <c r="D8" s="17"/>
       <c r="J8" s="17" t="s">
@@ -1224,13 +1213,13 @@
     </row>
     <row r="9" spans="1:16" s="13" customFormat="1">
       <c r="A9" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="17"/>
       <c r="J9" s="17" t="s">
@@ -1239,13 +1228,13 @@
     </row>
     <row r="10" spans="1:16" s="13" customFormat="1">
       <c r="A10" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="17"/>
       <c r="J10" s="17" t="s">
@@ -1254,16 +1243,16 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="J11" s="17" t="s">
         <v>19</v>
@@ -1271,13 +1260,13 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>19</v>
@@ -1285,13 +1274,13 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>19</v>
@@ -1302,10 +1291,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>19</v>
@@ -1316,10 +1305,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J15" s="17" t="s">
         <v>19</v>
@@ -1330,10 +1319,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J16" s="17" t="s">
         <v>19</v>
@@ -1341,13 +1330,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>19</v>
@@ -1355,16 +1344,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>19</v>
@@ -1372,16 +1361,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="H19" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>19</v>
@@ -1392,19 +1381,19 @@
         <v>13</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>73</v>
-      </c>
       <c r="H20" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>19</v>
@@ -1412,16 +1401,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="I21" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="J21" s="17" t="s">
         <v>19</v>
@@ -1429,29 +1418,29 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +1469,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1489,65 +1478,65 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>91</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="8"/>
@@ -1561,26 +1550,26 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="8"/>
@@ -1594,156 +1583,156 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="8"/>
@@ -1757,83 +1746,83 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1841,450 +1830,450 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E42" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E43" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E44" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E45" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E46" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F48" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F49" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F50" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C51" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F51" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F52" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F53" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F54" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F55" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F56" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F57" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F58" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C59" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F59" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F60" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F61" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B62" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F62" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F63" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2336,8 +2325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2349,24 +2338,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/ONCHO/Impact Assessments/Nigeria/2024/cross river/ng_oncho_stop_2411_1_site_cs.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2024/cross river/ng_oncho_stop_2411_1_site_cs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\cross river\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CCA757-0797-4111-8870-683E8E1CE0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C370E829-9A16-4800-B4D5-873FDE1B5202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -470,30 +470,6 @@
     <t>CRS_YAK_M_008</t>
   </si>
   <si>
-    <t>CRS_ABI_IA_009</t>
-  </si>
-  <si>
-    <t>CRS_ABI_IA_010</t>
-  </si>
-  <si>
-    <t>CRS_ABI_IA_011</t>
-  </si>
-  <si>
-    <t>CRS_ABI_IA_012</t>
-  </si>
-  <si>
-    <t>CRS_ABI_IA_013</t>
-  </si>
-  <si>
-    <t>CRS_ABI_IA_014</t>
-  </si>
-  <si>
-    <t>CRS_ABI_IA_015</t>
-  </si>
-  <si>
-    <t>CRS_ABI_IA_016</t>
-  </si>
-  <si>
     <t>bind::db_add_col_1</t>
   </si>
   <si>
@@ -513,6 +489,30 @@
   </si>
   <si>
     <t>(Cross River 2024 Nov) - 1. Site Form</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_001</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_002</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_003</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_004</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_005</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_006</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_007</t>
+  </si>
+  <si>
+    <t>CRS_ABI_IA_008</t>
   </si>
 </sst>
 </file>
@@ -1030,13 +1030,13 @@
         <v>12</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="13" customFormat="1" ht="31.5">
@@ -1111,7 +1111,7 @@
         <v>26</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="13" customFormat="1">
@@ -1137,10 +1137,10 @@
         <v>30</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="13" customFormat="1">
@@ -1167,10 +1167,10 @@
         <v>34</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="13" customFormat="1" ht="15.75" customHeight="1">
@@ -1453,9 +1453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48:A63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2063,7 +2063,7 @@
         <v>137</v>
       </c>
       <c r="F48" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2077,7 +2077,7 @@
         <v>138</v>
       </c>
       <c r="F49" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2091,7 +2091,7 @@
         <v>139</v>
       </c>
       <c r="F50" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2105,7 +2105,7 @@
         <v>140</v>
       </c>
       <c r="F51" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2119,7 +2119,7 @@
         <v>141</v>
       </c>
       <c r="F52" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2133,7 +2133,7 @@
         <v>142</v>
       </c>
       <c r="F53" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2147,7 +2147,7 @@
         <v>143</v>
       </c>
       <c r="F54" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2161,7 +2161,7 @@
         <v>144</v>
       </c>
       <c r="F55" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2169,13 +2169,13 @@
         <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F56" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2183,13 +2183,13 @@
         <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C57" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F57" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2197,13 +2197,13 @@
         <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C58" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F58" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2211,13 +2211,13 @@
         <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F59" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2225,13 +2225,13 @@
         <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F60" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2239,13 +2239,13 @@
         <v>108</v>
       </c>
       <c r="B61" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F61" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2253,13 +2253,13 @@
         <v>108</v>
       </c>
       <c r="B62" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C62" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F62" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2267,13 +2267,13 @@
         <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F63" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2325,8 +2325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>114</v>

--- a/ONCHO/Impact Assessments/Nigeria/2024/cross river/ng_oncho_stop_2411_1_site_cs.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2024/cross river/ng_oncho_stop_2411_1_site_cs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\cross river\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C370E829-9A16-4800-B4D5-873FDE1B5202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287A382E-5E79-4A36-B331-0F2B42F6BD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="177">
   <si>
     <t>type</t>
   </si>
@@ -377,9 +377,6 @@
     <t>. &gt; 1970 and . &lt;= 2024</t>
   </si>
   <si>
-    <t>ng_oncho_stop_2411_1_site_cs</t>
-  </si>
-  <si>
     <t>CROSS RIVER</t>
   </si>
   <si>
@@ -488,9 +485,6 @@
     <t>${c_cluster_name}</t>
   </si>
   <si>
-    <t>(Cross River 2024 Nov) - 1. Site Form</t>
-  </si>
-  <si>
     <t>CRS_ABI_IA_001</t>
   </si>
   <si>
@@ -513,6 +507,63 @@
   </si>
   <si>
     <t>CRS_ABI_IA_008</t>
+  </si>
+  <si>
+    <t>ng_oncho_stop_2411_1_site_cs_v2</t>
+  </si>
+  <si>
+    <t>(Cross River 2024 Nov) - 1. Site Form V2</t>
+  </si>
+  <si>
+    <t>CALABAR_SOUTH</t>
+  </si>
+  <si>
+    <t>AKPABUYO</t>
+  </si>
+  <si>
+    <t>ANANTIGHA</t>
+  </si>
+  <si>
+    <t>EFUT STREET</t>
+  </si>
+  <si>
+    <t>EKPENE ESUK</t>
+  </si>
+  <si>
+    <t>ELIOTT POINT</t>
+  </si>
+  <si>
+    <t>PARROT CROSSING</t>
+  </si>
+  <si>
+    <t>SMOKE FLATS</t>
+  </si>
+  <si>
+    <t>TECH SCHOOL ROAD</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_017</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_018</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_019</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_020</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_021</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_022</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_023</t>
+  </si>
+  <si>
+    <t>CRS_CAS_IA_024</t>
   </si>
 </sst>
 </file>
@@ -963,7 +1014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1030,13 +1081,13 @@
         <v>12</v>
       </c>
       <c r="N1" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="13" customFormat="1" ht="31.5">
@@ -1111,7 +1162,7 @@
         <v>26</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="13" customFormat="1">
@@ -1137,10 +1188,10 @@
         <v>30</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="13" customFormat="1">
@@ -1167,10 +1218,10 @@
         <v>34</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="13" customFormat="1" ht="15.75" customHeight="1">
@@ -1451,11 +1502,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48:C63"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72:A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1749,10 +1800,10 @@
         <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1760,13 +1811,13 @@
         <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1774,13 +1825,13 @@
         <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1788,13 +1839,13 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1802,13 +1853,13 @@
         <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1816,366 +1867,366 @@
         <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="D30" s="9"/>
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" t="s">
-        <v>116</v>
-      </c>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="E46" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="12" t="s">
-        <v>108</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
-      </c>
-      <c r="F48" t="s">
-        <v>129</v>
+        <v>163</v>
+      </c>
+      <c r="E48" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="12" t="s">
-        <v>108</v>
+      <c r="A49" t="s">
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
-      </c>
-      <c r="F49" t="s">
-        <v>130</v>
+        <v>164</v>
+      </c>
+      <c r="E49" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="12" t="s">
-        <v>108</v>
+      <c r="A50" t="s">
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
-      </c>
-      <c r="F50" t="s">
-        <v>131</v>
+        <v>165</v>
+      </c>
+      <c r="E50" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="12" t="s">
-        <v>108</v>
+      <c r="A51" t="s">
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
-      </c>
-      <c r="F51" t="s">
-        <v>132</v>
+        <v>166</v>
+      </c>
+      <c r="E51" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="12" t="s">
-        <v>108</v>
+      <c r="A52" t="s">
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="C52" t="s">
-        <v>141</v>
-      </c>
-      <c r="F52" t="s">
-        <v>133</v>
+        <v>167</v>
+      </c>
+      <c r="E52" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="12" t="s">
-        <v>108</v>
+      <c r="A53" t="s">
+        <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
-      </c>
-      <c r="F53" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B54" t="s">
-        <v>143</v>
-      </c>
       <c r="C54" t="s">
-        <v>143</v>
-      </c>
-      <c r="F54" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" t="s">
-        <v>144</v>
-      </c>
       <c r="C55" t="s">
-        <v>144</v>
-      </c>
-      <c r="F55" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B56" t="s">
-        <v>152</v>
-      </c>
-      <c r="C56" t="s">
-        <v>152</v>
-      </c>
-      <c r="F56" t="s">
-        <v>121</v>
+        <v>135</v>
+      </c>
+      <c r="E55" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2183,13 +2234,13 @@
         <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="F57" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2197,13 +2248,13 @@
         <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C58" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="F58" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2211,13 +2262,13 @@
         <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C59" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="F59" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2225,13 +2276,13 @@
         <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C60" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F60" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2239,13 +2290,13 @@
         <v>108</v>
       </c>
       <c r="B61" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C61" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F61" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2253,13 +2304,13 @@
         <v>108</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C62" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="F62" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2267,55 +2318,269 @@
         <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C63" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F63" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="12"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="12"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="12"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="12"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="12"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="12"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="12"/>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="12"/>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="12"/>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="12"/>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="12"/>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="12"/>
+      <c r="A64" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" t="s">
+        <v>150</v>
+      </c>
+      <c r="F65" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" t="s">
+        <v>151</v>
+      </c>
+      <c r="F66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" t="s">
+        <v>152</v>
+      </c>
+      <c r="F67" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" t="s">
+        <v>153</v>
+      </c>
+      <c r="F68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" t="s">
+        <v>154</v>
+      </c>
+      <c r="F69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" t="s">
+        <v>155</v>
+      </c>
+      <c r="F70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" t="s">
+        <v>156</v>
+      </c>
+      <c r="C71" t="s">
+        <v>156</v>
+      </c>
+      <c r="F71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" t="s">
+        <v>157</v>
+      </c>
+      <c r="F72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" t="s">
+        <v>169</v>
+      </c>
+      <c r="F73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" t="s">
+        <v>170</v>
+      </c>
+      <c r="C74" t="s">
+        <v>170</v>
+      </c>
+      <c r="F74" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" t="s">
+        <v>171</v>
+      </c>
+      <c r="F75" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" t="s">
+        <v>172</v>
+      </c>
+      <c r="F76" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" t="s">
+        <v>173</v>
+      </c>
+      <c r="F77" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" t="s">
+        <v>174</v>
+      </c>
+      <c r="F78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" t="s">
+        <v>175</v>
+      </c>
+      <c r="F79" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" t="s">
+        <v>176</v>
+      </c>
+      <c r="C80" t="s">
+        <v>176</v>
+      </c>
+      <c r="F80" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="12"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="12"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="12"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:E42">
-    <sortCondition ref="A35:A42"/>
-    <sortCondition ref="E35:E42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:E43">
+    <sortCondition ref="A36:A43"/>
+    <sortCondition ref="E36:E43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2326,7 +2591,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2349,10 +2614,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>112</v>
